--- a/pred_ohlcv/54_21/2020-01-11 FCT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 FCT ohlcv.xlsx
@@ -2160,7 +2160,7 @@
         <v>364803.4075626641</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>405997.0424626641</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>204827.0204997547</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>204827.0204997547</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>201369.6422997547</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>201369.6422997547</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>201383.3334997547</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>200813.6881997547</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>200813.6881997547</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>200828.9480997547</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>200813.4976997547</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>220743.4976997547</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>193888.2031997547</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>394090.4208997546</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>6101574.849193407</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>6101474.849193407</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>6134431.591793407</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>6063231.524093407</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>6063231.524093407</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>6063231.524093407</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>6065497.405493408</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>6064352.126493407</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>6065408.837793407</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>6065408.837793407</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>6065300.976893407</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>6065300.976893407</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>6068633.562093407</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>6059445.376493406</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>12182366.64859341</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>12182366.64859341</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>6179739.838893407</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-11 FCT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 FCT ohlcv.xlsx
@@ -2134,7 +2134,7 @@
         <v>370826.9850626641</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>364803.4075626641</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>405997.0424626641</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>406215.9749368673</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>204827.0204997547</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>204827.0204997547</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>201369.6422997547</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>201369.6422997547</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>201383.3334997547</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>200813.6881997547</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>200813.6881997547</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>200828.9480997547</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>200813.4976997547</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>220743.4976997547</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>193888.2031997547</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>394090.4208997546</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>6104490.363693407</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>6106588.257693407</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>6106588.257693407</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>6101574.849193407</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>6101474.849193407</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>6134431.591793407</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>6134431.591793407</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>6063231.524093407</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>6063231.524093407</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>6063231.524093407</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>6065497.405493408</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>6064352.126493407</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>6065408.837793407</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>6065408.837793407</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>6065300.976893407</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>6065300.976893407</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>6068633.562093407</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>6059445.376493406</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>6179739.838893407</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>3079677.977593407</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
